--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>887715.449949775</v>
+        <v>885827.8684333739</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>102.5551903757786</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>119.4263511362047</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>353.9487446662073</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>36.6163542227255</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>84.16790000022195</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>43.1628810027747</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>130.3341013017104</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>117.2832377900596</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>117.3199665042502</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>194.6193727018216</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1819,16 +1819,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>102.2259978086885</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>58.29070341759515</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>62.2255133131931</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>87.90024861273406</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>143.315822205651</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>100.1380520687123</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>68.02393963678929</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>122.740500911424</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722542</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2649,10 +2649,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>101.0254747762727</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>126.9823010373385</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2886,10 +2886,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533799</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700705</v>
       </c>
       <c r="D31" t="n">
-        <v>42.92025750557023</v>
+        <v>93.41221638965497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801179</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>90.21779139437386</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348202</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>93.71057173897877</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523567</v>
+        <v>54.76109577523553</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>56.04888104796292</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.03409577002</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952706</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080336</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604798</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235374</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463131</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463131</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415213</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>1646.746562480845</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1646.746562480845</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1288.480863874094</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>902.6926112758501</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2126.67556891959</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>1795.61268157602</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>1795.61268157602</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.14692331494</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.14692331494</v>
+        <v>2033.346402544967</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,19 +4410,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2079.343073798764</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C5" t="n">
-        <v>2079.343073798764</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1721.077375192013</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2660.162874631631</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2483.985386945801</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2265.350719917864</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2011.588934555955</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2011.588934555955</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="Y5" t="n">
-        <v>2465.942913862886</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>285.8510101265798</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>285.8510101265798</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>285.8510101265798</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>285.8510101265798</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>138.9610626286695</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>138.9610626286695</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>684.5301145066618</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>684.5301145066618</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245972</v>
+        <v>684.5301145066618</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245972</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245972</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="X7" t="n">
-        <v>285.8510101265798</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y7" t="n">
-        <v>285.8510101265798</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763.586886263858</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>930.7521172616398</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>930.7521172616398</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2523.652484589059</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2523.652484589059</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2523.652484589059</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2523.652484589059</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2523.652484589059</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>2150.18672632798</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y8" t="n">
-        <v>2150.18672632798</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326643</v>
+        <v>184.027325963587</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047574</v>
+        <v>184.027325963587</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>184.027325963587</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,28 +5024,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,19 +5057,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>510.5251492115492</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C13" t="n">
-        <v>510.5251492115492</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
         <v>392.0201325405893</v>
@@ -5206,13 +5206,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609662</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550793</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W13" t="n">
-        <v>731.3177283550793</v>
+        <v>920.3704617344997</v>
       </c>
       <c r="X13" t="n">
-        <v>731.3177283550793</v>
+        <v>723.7852367831648</v>
       </c>
       <c r="Y13" t="n">
-        <v>510.5251492115492</v>
+        <v>723.7852367831648</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5276,19 +5276,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>731.3351829786185</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C16" t="n">
-        <v>562.3990000507116</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383758</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383758</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404655</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5434,13 +5434,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5467,19 +5467,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1395.657686912763</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1140.973198706876</v>
+        <v>1150.908133369849</v>
       </c>
       <c r="W16" t="n">
-        <v>1140.973198706876</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="X16" t="n">
-        <v>912.9836478088582</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="Y16" t="n">
-        <v>912.9836478088582</v>
+        <v>861.4909633328887</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028562</v>
@@ -5516,7 +5516,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M18" t="n">
-        <v>1595.645765494011</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1925.508393158044</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2205.048458376741</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2410.070939158951</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>711.0729548808321</v>
+        <v>773.1661474848147</v>
       </c>
       <c r="C19" t="n">
-        <v>542.1367719529251</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5707,16 +5707,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1410.12814064605</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>1120.710970609089</v>
+        <v>954.8146123150544</v>
       </c>
       <c r="X19" t="n">
-        <v>892.7214197110718</v>
+        <v>954.8146123150544</v>
       </c>
       <c r="Y19" t="n">
-        <v>892.7214197110718</v>
+        <v>954.8146123150544</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5777,25 +5777,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>241.9805482336707</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C22" t="n">
-        <v>241.9805482336707</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D22" t="n">
-        <v>241.9805482336707</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>241.9805482336707</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5938,22 +5938,22 @@
         <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1197.846712929301</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765182</v>
+        <v>1197.846712929301</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706313</v>
+        <v>943.1622247234138</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336707</v>
+        <v>653.7450546864533</v>
       </c>
       <c r="X22" t="n">
-        <v>241.9805482336707</v>
+        <v>425.7555037884359</v>
       </c>
       <c r="Y22" t="n">
-        <v>241.9805482336707</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,10 +6005,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>434.3285960683721</v>
+        <v>710.6134626728253</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>710.6134626728253</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>710.6134626728253</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>562.7003690904322</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925218</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1430.205220419731</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1206.419805209237</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>1206.419805209237</v>
+        <v>1374.935966606969</v>
       </c>
       <c r="V25" t="n">
-        <v>951.73531700335</v>
+        <v>1120.251478401083</v>
       </c>
       <c r="W25" t="n">
-        <v>662.3181469663895</v>
+        <v>1120.251478401083</v>
       </c>
       <c r="X25" t="n">
-        <v>434.3285960683721</v>
+        <v>892.2619275030651</v>
       </c>
       <c r="Y25" t="n">
-        <v>434.3285960683721</v>
+        <v>892.2619275030651</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550595</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610184</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003433</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515094</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619124</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643319</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899121</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207823</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014286</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231256</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014186</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465294</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121723</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851609</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590529</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614717</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126477</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571598</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636232</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>525.6009593486384</v>
+        <v>860.7301020851609</v>
       </c>
       <c r="C28" t="n">
-        <v>356.6647764207315</v>
+        <v>860.7301020851609</v>
       </c>
       <c r="D28" t="n">
-        <v>356.6647764207315</v>
+        <v>710.6134626728251</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>562.7003690904321</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925218</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688066</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799354</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471177</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S28" t="n">
-        <v>1285.79523300228</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="T28" t="n">
-        <v>1285.79523300228</v>
+        <v>1370.651320015133</v>
       </c>
       <c r="U28" t="n">
-        <v>996.6665942158387</v>
+        <v>1081.522681228691</v>
       </c>
       <c r="V28" t="n">
-        <v>996.6665942158387</v>
+        <v>1081.522681228691</v>
       </c>
       <c r="W28" t="n">
-        <v>707.2494241788781</v>
+        <v>1081.522681228691</v>
       </c>
       <c r="X28" t="n">
-        <v>707.2494241788781</v>
+        <v>1081.522681228691</v>
       </c>
       <c r="Y28" t="n">
-        <v>707.2494241788781</v>
+        <v>860.7301020851609</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6449,64 +6449,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256432</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277025</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341659</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653861</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.87805691801</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136707</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6576,7 +6576,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542193</v>
+        <v>695.1010933248417</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076832</v>
+        <v>581.9257756783059</v>
       </c>
       <c r="D31" t="n">
-        <v>283.0033168475113</v>
+        <v>487.5700015473412</v>
       </c>
       <c r="E31" t="n">
-        <v>283.0033168475113</v>
+        <v>395.4177732463192</v>
       </c>
       <c r="F31" t="n">
-        <v>191.8742346309718</v>
+        <v>304.28869102978</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>191.8742346309715</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028587</v>
@@ -6619,52 +6619,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
         <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1824.196793537692</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1590.829020032621</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1391.905397108105</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981894</v>
+        <v>1158.249092352516</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652475</v>
+        <v>986.0204067358693</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030882</v>
+        <v>820.9886928737103</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6689,7 +6689,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,19 +6698,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,13 +6926,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6953,13 +6953,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7078,28 +7078,28 @@
         <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,7 +7126,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7172,19 +7172,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7214,10 +7214,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083204</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,7 +7372,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010315</v>
@@ -7409,13 +7409,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7546,13 +7546,13 @@
         <v>659.4602391108336</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7640,19 +7640,19 @@
         <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7831,7 +7831,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9006,22 +9006,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504743</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776807</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987299066</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229635</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>31.29550651396211</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>31.09028268721551</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23707,16 +23707,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>184.0113545898889</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>193.8469399062328</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>105.0213077854347</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23947,13 +23947,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>164.2373947110939</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>2.105225817280257</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>121.4095089896769</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,19 +24412,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>129.896870346814</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>163.4968514871533</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S28" t="n">
-        <v>96.89533520733059</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>94.5652600210507</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>50.49195888408503</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571487</v>
+        <v>55.21598883571468</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550459</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>110.2954233818689</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1004253.04029659</v>
+        <v>1004253.040296589</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1004253.04029659</v>
+        <v>1004253.040296589</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1004253.040296589</v>
+        <v>1004253.04029659</v>
       </c>
     </row>
     <row r="11">
@@ -26317,13 +26317,13 @@
         <v>389994.8406855344</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="E2" t="n">
-        <v>371477.6067508234</v>
+        <v>371477.6067508237</v>
       </c>
       <c r="F2" t="n">
-        <v>371477.6067508236</v>
+        <v>371477.6067508237</v>
       </c>
       <c r="G2" t="n">
         <v>371477.6067508236</v>
@@ -26332,22 +26332,22 @@
         <v>371477.6067508236</v>
       </c>
       <c r="I2" t="n">
-        <v>371477.6067508235</v>
+        <v>371477.6067508237</v>
       </c>
       <c r="J2" t="n">
-        <v>371477.6067508236</v>
+        <v>371477.6067508237</v>
       </c>
       <c r="K2" t="n">
-        <v>386481.0304780066</v>
+        <v>386481.0304780067</v>
       </c>
       <c r="L2" t="n">
-        <v>389994.8406855347</v>
+        <v>389994.8406855349</v>
       </c>
       <c r="M2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="N2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855349</v>
       </c>
       <c r="O2" t="n">
         <v>389994.8406855346</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925913</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284591</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086769</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284588</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007478</v>
+        <v>7916.731656007505</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007493</v>
+        <v>7916.73165600754</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007461</v>
+        <v>7916.731656007834</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020401</v>
+        <v>26081.35417020414</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="M4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732799</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732799</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,7 +26482,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26491,16 +26491,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871649</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26525,43 +26525,43 @@
         <v>159218.7139062041</v>
       </c>
       <c r="D6" t="n">
-        <v>159218.7139062041</v>
+        <v>159218.7139062042</v>
       </c>
       <c r="E6" t="n">
-        <v>-253586.4873307968</v>
+        <v>-253683.9464567687</v>
       </c>
       <c r="F6" t="n">
-        <v>271573.5491460995</v>
+        <v>271476.0900201274</v>
       </c>
       <c r="G6" t="n">
-        <v>271573.5491460995</v>
+        <v>271476.0900201273</v>
       </c>
       <c r="H6" t="n">
-        <v>271573.5491460995</v>
+        <v>271476.0900201272</v>
       </c>
       <c r="I6" t="n">
-        <v>271573.5491460994</v>
+        <v>271476.0900201272</v>
       </c>
       <c r="J6" t="n">
-        <v>95150.3299535065</v>
+        <v>95052.87082753585</v>
       </c>
       <c r="K6" t="n">
-        <v>219608.8624747341</v>
+        <v>219590.3687367995</v>
       </c>
       <c r="L6" t="n">
-        <v>251601.3091673146</v>
+        <v>251601.3091673138</v>
       </c>
       <c r="M6" t="n">
-        <v>127143.2007343441</v>
+        <v>127143.2007343442</v>
       </c>
       <c r="N6" t="n">
-        <v>261944.2159681813</v>
+        <v>261944.2159681815</v>
       </c>
       <c r="O6" t="n">
         <v>261944.2159681813</v>
       </c>
       <c r="P6" t="n">
-        <v>217781.6106653357</v>
+        <v>217781.6106653356</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,34 +26750,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054540987</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054540987</v>
+      </c>
+      <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108356</v>
+        <v>12.9286335010833</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,16 +26978,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-4.371279693373338e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545541</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>304.3208553659329</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>131.7978163720846</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>51.3673158183902</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>27.98162540605443</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>17.86204835208621</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>72.0029888415732</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.9826579472442</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>276.5419444400011</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>57.13247501891198</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>46.83478528866331</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>17.65046194477887</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>7.617018127348274e-12</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
     </row>
     <row r="32">
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32470,40 +32470,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32543,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32555,7 +32555,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32564,10 +32564,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32643,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32655,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.689756130333</v>
@@ -35659,7 +35659,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35726,22 +35726,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>460.8305752819989</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>215.6591577951388</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092047</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970350593</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490637</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879387</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734289</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415655</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.093414931524</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507368</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412272</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.4289566004319</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
